--- a/src/main/resources/excel/yuenan.xlsx
+++ b/src/main/resources/excel/yuenan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,75 +112,96 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>不良人越南WEB-006服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.232</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南WEB-007服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南supersdk01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南supersdk02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南公告服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.126</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南日志、数据备份服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人测试服web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.155</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">blr2vn-login01.aseugame.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">blr2vn-pay01.aseugame.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">blr2vn-supersdk.aseugame.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>10.16.60.225</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人越南WEB-006服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.232</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南WEB-007服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.16.60.40</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.16.60.60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南supersdk01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南supersdk02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南公告服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.126</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南日志、数据备份服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人测试服web</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.155</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">blr2vn-login01.aseugame.com </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">blr2vn-pay01.aseugame.com </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">blr2vn-supersdk.aseugame.com </t>
+    <t>不良人越南WEB-008服</t>
+  </si>
+  <si>
+    <t>10.16.60.145</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南WEB-009服</t>
+  </si>
+  <si>
+    <t>10.16.60.204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南WEB-010服</t>
+  </si>
+  <si>
+    <t>10.16.60.193</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D17" sqref="D17:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,7 +684,7 @@
         <v>36001</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -671,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>3306</v>
@@ -680,7 +701,7 @@
         <v>36002</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -713,7 +734,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -725,15 +746,15 @@
         <v>36005</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3306</v>
@@ -744,10 +765,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>3306</v>
@@ -758,7 +779,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -775,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>3306</v>
@@ -786,10 +807,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>3306</v>
@@ -855,11 +876,11 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C16">
         <v>3306</v>
@@ -869,11 +890,11 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C17">
         <v>3306</v>
@@ -883,17 +904,59 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C18">
         <v>3306</v>
       </c>
       <c r="D18">
         <v>36107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>3306</v>
+      </c>
+      <c r="D19">
+        <v>36108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>3306</v>
+      </c>
+      <c r="D20">
+        <v>36109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>3306</v>
+      </c>
+      <c r="D21">
+        <v>36110</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/yuenan.xlsx
+++ b/src/main/resources/excel/yuenan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,23 +76,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人越南WEB-001服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>10.16.60.60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南supersdk01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南supersdk02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南公告服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.126</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南日志、数据备份服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人测试服web</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.155</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">blr2vn-login01.aseugame.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">blr2vn-pay01.aseugame.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">blr2vn-supersdk.aseugame.com </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南WEB-008服</t>
+  </si>
+  <si>
+    <t>不良人越南WEB-009服</t>
+  </si>
+  <si>
+    <t>不良人越南WEB-010服</t>
+  </si>
+  <si>
+    <t>gaoye</t>
+  </si>
+  <si>
+    <t>baseServerId</t>
+  </si>
+  <si>
+    <t>isRedis</t>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南WEB-001-004服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南WEB-005-007服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人越南WEB-011服</t>
+  </si>
+  <si>
+    <t>不良人越南WEB-012服</t>
   </si>
   <si>
     <t>10.16.60.21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人越南WEB-002服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南WEB-003服</t>
+    <t>10.16.60.225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.145</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16.60.193</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -100,108 +188,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人越南WEB-004服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.16.60.153</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南WEB-005服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南WEB-006服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.232</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南WEB-007服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南supersdk01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南supersdk02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南公告服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.126</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南日志、数据备份服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人测试服web</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.155</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">blr2vn-login01.aseugame.com </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">blr2vn-pay01.aseugame.com </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">blr2vn-supersdk.aseugame.com </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.225</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.16.60.40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南WEB-008服</t>
-  </si>
-  <si>
-    <t>10.16.60.145</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南WEB-009服</t>
-  </si>
-  <si>
-    <t>10.16.60.204</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人越南WEB-010服</t>
-  </si>
-  <si>
-    <t>10.16.60.193</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,15 +221,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -312,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -324,9 +302,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D21"/>
+      <selection activeCell="B12" sqref="B12:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -651,9 +626,11 @@
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -669,8 +646,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -683,16 +672,28 @@
       <c r="D2">
         <v>36001</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>3306</v>
@@ -700,11 +701,23 @@
       <c r="D3">
         <v>36002</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -717,8 +730,20 @@
       <c r="D4">
         <v>36003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,10 +756,22 @@
       <c r="D5">
         <v>36004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -745,16 +782,28 @@
       <c r="D6">
         <v>36005</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>3306</v>
@@ -762,13 +811,25 @@
       <c r="D7">
         <v>36006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>3306</v>
@@ -776,10 +837,22 @@
       <c r="D8">
         <v>36007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -790,13 +863,25 @@
       <c r="D9">
         <v>36008</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>3306</v>
@@ -804,13 +889,25 @@
       <c r="D10">
         <v>36009</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>3306</v>
@@ -818,13 +915,25 @@
       <c r="D11">
         <v>36010</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C12">
         <v>3306</v>
@@ -832,13 +941,25 @@
       <c r="D12">
         <v>36101</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C13">
         <v>3306</v>
@@ -846,13 +967,25 @@
       <c r="D13">
         <v>36102</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C14">
         <v>3306</v>
@@ -860,13 +993,25 @@
       <c r="D14">
         <v>36103</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C15">
         <v>3306</v>
@@ -874,13 +1019,25 @@
       <c r="D15">
         <v>36104</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C16">
         <v>3306</v>
@@ -888,13 +1045,25 @@
       <c r="D16">
         <v>36105</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C17">
         <v>3306</v>
@@ -902,13 +1071,25 @@
       <c r="D17">
         <v>36106</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C18">
         <v>3306</v>
@@ -916,47 +1097,17 @@
       <c r="D18">
         <v>36107</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <v>3306</v>
-      </c>
-      <c r="D19">
-        <v>36108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>3306</v>
-      </c>
-      <c r="D20">
-        <v>36109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21">
-        <v>3306</v>
-      </c>
-      <c r="D21">
-        <v>36110</v>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
